--- a/20230215_VXI-11 通信の概要/502_VXI_11_Table_B_1.xlsx
+++ b/20230215_VXI-11 通信の概要/502_VXI_11_Table_B_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7E49C3-B68F-4015-AC3D-9658B05777CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21B4A3F-789B-4F90-889E-4F0E45993574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
@@ -434,55 +434,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>145144</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>115207</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>909387</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>6803</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F5A303-7B00-48D9-44F2-5132BC90ADFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="145144" y="4639582"/>
-          <a:ext cx="8225493" cy="4892221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1239,6 +1190,5 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>